--- a/biology/Botanique/Forêt_humide/Forêt_humide.xlsx
+++ b/biology/Botanique/Forêt_humide/Forêt_humide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_humide</t>
+          <t>Forêt_humide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une forêt humide est une forêt caractérisée par des précipitations abondantes, avec une pluviométrie entre 1 750 et 2 000 mm/an.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_humide</t>
+          <t>Forêt_humide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Forêt tempérée humide</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La forêt tempérée humide est un type de forêt tempérée sempervirente. Composée de conifères ou de feuillus, on la trouve aux latitudes tempérées, dans des zones où les précipitations sont abondantes.
 La plupart de ces forêts se trouvent dans des climats océaniques humides :
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_humide</t>
+          <t>Forêt_humide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Forêt tropicale humide</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt tropicale humide est située dans les régions de la zone intertropicale soumises à un climat équatorial ou tropical.
 Elle occupe un peu moins d'un dixième de la superficie de toutes les forêts, soit 12,3 millions de km², mais elle abrite le plus de biodiversité spécifique.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_humide</t>
+          <t>Forêt_humide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Déforestation
 Sur les autres projets Wikimedia :
